--- a/OpCodes.xlsx
+++ b/OpCodes.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="113" documentId="11_F25DC773A252ABEACE02ECE02B9864DE5ADE58A2" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{781F98FF-AE8A-4271-A3D6-59B7973D714C}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="11_F25DC773A252ABEACE02ECE02B9864DE5ADE58A2" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{CACC4922-14D6-47FF-B185-D63144B6DE9E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179020"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>OpCode</t>
   </si>
@@ -81,12 +82,6 @@
     <t>ADDA</t>
   </si>
   <si>
-    <t>ADDI</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
     <t>ADDQ</t>
   </si>
   <si>
@@ -99,9 +94,6 @@
     <t>1001</t>
   </si>
   <si>
-    <t>SUBI</t>
-  </si>
-  <si>
     <t>MULS</t>
   </si>
   <si>
@@ -114,15 +106,6 @@
     <t>AND</t>
   </si>
   <si>
-    <t>ROL</t>
-  </si>
-  <si>
-    <t>ROR</t>
-  </si>
-  <si>
-    <t>Bcc (BCC, BLT, BGE)</t>
-  </si>
-  <si>
     <t>JSR</t>
   </si>
   <si>
@@ -151,6 +134,27 @@
   </si>
   <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>DIVU</t>
+  </si>
+  <si>
+    <t>LEA</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>ASL</t>
+  </si>
+  <si>
+    <t>ASR</t>
+  </si>
+  <si>
+    <t>Bcc (BGT, BLE, BEQ)</t>
+  </si>
+  <si>
+    <t>HEAD</t>
   </si>
 </sst>
 </file>
@@ -194,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -207,6 +211,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +525,7 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1">
         <v>1000</v>
@@ -523,10 +533,10 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -536,18 +546,18 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -557,7 +567,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>1100</v>
@@ -565,10 +575,10 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -578,18 +588,18 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -607,10 +617,10 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -628,10 +638,10 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -641,18 +651,18 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1110</v>
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -662,10 +672,10 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1110</v>
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -683,10 +693,10 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -704,15 +714,15 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>13</v>
@@ -727,7 +737,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>13</v>
@@ -742,7 +752,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
@@ -756,11 +766,11 @@
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" t="s">
-        <v>20</v>
+      <c r="F14" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -772,10 +782,10 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -787,10 +797,10 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -802,10 +812,10 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -816,8 +826,12 @@
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
@@ -826,7 +840,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>1</v>
@@ -853,10 +867,10 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -881,10 +895,10 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -895,10 +909,10 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -953,10 +967,355 @@
       <c r="F31" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="F2:G18">
-    <sortCondition ref="G2:G18"/>
+  <sortState ref="B2:C11">
+    <sortCondition ref="C2:C11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB9992E-F9AD-4D68-8A34-D7D23BB5E30A}">
+  <dimension ref="D4:AB15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+    </row>
+    <row r="6" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7">
+        <v>1</v>
+      </c>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+    </row>
+    <row r="9" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7">
+        <v>1</v>
+      </c>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+    </row>
+    <row r="10" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+    </row>
+    <row r="11" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7">
+        <v>1</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7">
+        <v>1</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7">
+        <v>0</v>
+      </c>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+    </row>
+    <row r="12" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+    </row>
+    <row r="13" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+    </row>
+    <row r="14" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+    </row>
+    <row r="15" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OpCodes.xlsx
+++ b/OpCodes.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="147" documentId="11_F25DC773A252ABEACE02ECE02B9864DE5ADE58A2" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{CACC4922-14D6-47FF-B185-D63144B6DE9E}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="11_F25DC773A252ABEACE02ECE02B9864DE5ADE58A2" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{25FB4153-F93F-4983-90F8-A75CCF810017}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179020"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>OpCode</t>
   </si>
@@ -152,9 +151,6 @@
   </si>
   <si>
     <t>Bcc (BGT, BLE, BEQ)</t>
-  </si>
-  <si>
-    <t>HEAD</t>
   </si>
 </sst>
 </file>
@@ -198,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -213,9 +209,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -973,349 +966,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB9992E-F9AD-4D68-8A34-D7D23BB5E30A}">
-  <dimension ref="D4:AB15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="4" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-    </row>
-    <row r="6" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-    </row>
-    <row r="7" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7">
-        <v>1</v>
-      </c>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-    </row>
-    <row r="8" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-    </row>
-    <row r="9" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7">
-        <v>1</v>
-      </c>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-    </row>
-    <row r="10" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-    </row>
-    <row r="11" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7">
-        <v>1</v>
-      </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7">
-        <v>1</v>
-      </c>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7">
-        <v>0</v>
-      </c>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-    </row>
-    <row r="12" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-    </row>
-    <row r="13" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-    </row>
-    <row r="14" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-    </row>
-    <row r="15" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>